--- a/group-reports/tables/shahriar-3-1-results-test-3.xlsx
+++ b/group-reports/tables/shahriar-3-1-results-test-3.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2485 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>1279.47</t>
+          <t>1279.47 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>2765 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>1278.91</t>
+          <t>1278.91 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>3458</t>
+          <t>3458 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>1279.35</t>
+          <t>1279.35 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>2494 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>1279.27</t>
+          <t>1279.27 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>3243 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>1279.39</t>
+          <t>1279.39 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>2547 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>1279.39</t>
+          <t>1279.39 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>3426</t>
+          <t>3426 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>1279.08</t>
+          <t>1279.08 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2499 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>1279.23</t>
+          <t>1279.23 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>2921 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>1279.22</t>
+          <t>1279.22 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>2760 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>1279.43</t>
+          <t>1279.43 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2473</t>
+          <t>2473 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>1279.46</t>
+          <t>1279.46 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>2964 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>1279.29</t>
+          <t>1279.29 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>3763 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>1279.37</t>
+          <t>1279.37 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2526 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>1279.33</t>
+          <t>1279.33 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>2664 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>1279.29</t>
+          <t>1279.29 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2535 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>1279.17</t>
+          <t>1279.17 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2559</t>
+          <t>2559 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>1279.28</t>
+          <t>1279.28 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2524 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>1279.14</t>
+          <t>1279.14 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2552</t>
+          <t>2552 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>1279.19</t>
+          <t>1279.19 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2524 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>1279.35</t>
+          <t>1279.35 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2534 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>1279.14</t>
+          <t>1279.14 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
